--- a/Flower pollination algorithm/PSO/Data/testdata.xlsx
+++ b/Flower pollination algorithm/PSO/Data/testdata.xlsx
@@ -1,91 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/PSO/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B853E-7E39-9445-9179-0CD81BA98F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="fun1" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun7" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk161519553" localSheetId="0">Sheet1!$B$2</definedName>
     <definedName name="_Hlk161519618" localSheetId="0">Sheet1!$A$2</definedName>
     <definedName name="_Hlk161519738" localSheetId="0">Sheet1!$B$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>次数</t>
-  </si>
-  <si>
-    <t>适应度</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>ave</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,35 +62,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -449,7 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
@@ -458,312 +482,1096 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>次数</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>适应度</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="C3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="C4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="C8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="C13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="C14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="C15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="C16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="C17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="C18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="C19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="C20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="C21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="C22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="C23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="C24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="C25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="C26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="C27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="C28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="C29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="C30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
+      <c r="C31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
       <c r="B32" s="2">
         <f>MIN(B2:B31)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C32" s="2">
         <f>MIN(C2:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
       <c r="B33" s="2">
         <f>MAX(B2:B31)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C33" s="2">
         <f>MAX(C2:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2" t="e">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>ave</t>
+        </is>
+      </c>
+      <c r="B34" s="2">
         <f>AVERAGE(B2:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="2" t="e">
+        <v/>
+      </c>
+      <c r="C34" s="2">
         <f>AVERAGE(C2:C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="e">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B35" s="2">
         <f>STDEV(B2:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="2" t="e">
+        <v/>
+      </c>
+      <c r="C35" s="2">
         <f>STDEV(C2:C31)</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col width="9.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>23418.79912563117</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4.101535558700562</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>3793.208935867521</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.763769865036011</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>30956.49261899142</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.828014850616455</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>12163.80871339143</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.846452951431274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>31357.92612772835</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.747399568557739</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1991.237477072717</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.738653182983398</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>21736.92217018951</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>3.797463417053223</v>
+      </c>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>22071.63524758918</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3.751768589019775</v>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>31181.53694532095</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>3.681777238845825</v>
+      </c>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>21975.73206168204</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>3.752844572067261</v>
+      </c>
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>31059.32548919805</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3.799345254898071</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>11269.02694136659</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.832095146179199</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>5697.498724481842</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3.78951096534729</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>30789.25662088632</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3.852344751358032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>2454.507961267784</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3.786724090576172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>31087.14067476223</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3.727058410644531</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>13574.84616999732</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3.804272890090942</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>30884.13978701571</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3.778860330581665</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>11466.40731009532</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3.862585306167603</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>5121.38720639808</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3.798418283462524</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>123.0640587114244</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.810487985610962</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>4527011402.871328</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.54874324798584</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>11719711.64393387</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.471757650375366</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>288506.1790821895</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.457297086715698</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>144768.4896716548</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.505253791809082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>100.9162613696855</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.512907266616821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>2774442.967584854</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3.493126153945923</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>37811112805.01462</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3.541793584823608</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1880025.832475986</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3.516301393508911</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>789.5682008981564</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3.5223069190979</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>5866.548571621085</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3.500468969345093</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>36.92216431880627</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.54108190536499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>114.8779018886259</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3.577353954315186</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>61610382.90611801</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3.522880792617798</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>124.3671445559428</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3.528619527816772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>25124.24157455135</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>9.477482557296753</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>82016.47904914698</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9.185594797134399</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>36402.19978993593</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>9.045137405395508</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>65530.00944148426</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.04297947883606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>34476.32610936934</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>9.040907382965088</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>34660.26912229018</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>9.121495485305786</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>47008.47770448963</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9.120050191879272</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>30519.91073563634</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>9.062603712081909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>63385.85944594437</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9.053547620773315</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>95605.99835076115</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9.045606851577759</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>63688.77673318589</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>9.115310907363892</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>35764.81931740834</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9.089150428771973</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>85481.05726128319</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9.104227304458618</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>107255.9849177313</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>9.105673313140869</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>33687.57065372188</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9.14413857460022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>77.11024609305007</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.109656810760498</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>83.02422338186801</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.143699645996094</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>87.09406535128866</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.095829486846924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>81.94100093189837</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.152206897735596</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>89.40986724688977</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.102627992630005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>80.08531852469679</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.125219106674194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>78.86939031464873</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3.132426977157593</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>83.37171356555872</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3.102766036987305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>76.82424105788225</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3.107640266418457</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>87.69614765407825</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3.121392488479614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>79.72585087598456</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3.285632133483887</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>82.90807382350513</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.146037578582764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>86.7511994209347</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3.225862264633179</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>89.24308148519515</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3.269638776779175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>88.05648861087289</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3.130565643310547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>80257809.90041618</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.702296495437622</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>80170088.1304003</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.813254356384277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>81570164.65105465</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.653902053833008</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1143312.883867685</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.728829145431519</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>471322.3889390821</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.762578725814819</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>80317370.07262619</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.725543975830078</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>80493409.18180928</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3.838205814361572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>31168.7539652087</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.508577108383179</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>21949.81772939377</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.700769662857056</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>12044.81878317686</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.685973644256592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1978.426568910068</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.747747659683228</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>22497.87309965185</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.588840961456299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>13281.51672799041</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.400199174880981</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>4397.524889643528</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3.367130041122437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>2.53025121972511</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.373987436294556</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.2477148784755095</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.452683925628662</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3.20684565260522</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.516607761383057</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>14.26666781901437</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.530957698822021</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>43.37828072958758</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.451943874359131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>11.2767766101346</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.417730569839478</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.2227553998884592</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.464828968048096</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Flower pollination algorithm/PSO/Data/testdata.xlsx
+++ b/Flower pollination algorithm/PSO/Data/testdata.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/PSO/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9D435-5478-804F-8252-14C4C8FD5E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA45AE-39B5-524A-98EB-BA4F1EE67E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="fun1" sheetId="2" r:id="rId2"/>
-    <sheet name="fun2" sheetId="3" r:id="rId3"/>
-    <sheet name="fun3" sheetId="4" r:id="rId4"/>
-    <sheet name="fun4" sheetId="5" r:id="rId5"/>
-    <sheet name="fun5" sheetId="6" r:id="rId6"/>
-    <sheet name="fun6" sheetId="7" r:id="rId7"/>
-    <sheet name="fun7" sheetId="8" r:id="rId8"/>
+    <sheet name="fun1" sheetId="2" r:id="rId1"/>
+    <sheet name="fun2" sheetId="3" r:id="rId2"/>
+    <sheet name="fun3" sheetId="4" r:id="rId3"/>
+    <sheet name="fun4" sheetId="5" r:id="rId4"/>
+    <sheet name="fun5" sheetId="6" r:id="rId5"/>
+    <sheet name="fun6" sheetId="7" r:id="rId6"/>
+    <sheet name="fun7" sheetId="8" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_Hlk161519553" localSheetId="0">Sheet1!$B$2</definedName>
-    <definedName name="_Hlk161519618" localSheetId="0">Sheet1!$A$2</definedName>
-    <definedName name="_Hlk161519738" localSheetId="0">Sheet1!$B$14</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,32 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>次数</t>
-  </si>
-  <si>
-    <t>适应度</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>ave</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,274 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2">
-        <f>MIN(B2:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <f>MIN(C2:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2">
-        <f>MAX(B2:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <f>MAX(C2:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2" t="e">
-        <f>AVERAGE(B2:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="2" t="e">
-        <f>AVERAGE(C2:C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="e">
-        <f>STDEV(B2:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="2" t="e">
-        <f>STDEV(C2:C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -933,7 +638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1113,7 +818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1289,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1466,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1642,7 +1347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1818,11 +1523,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+    <sheetView zoomScale="188" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Flower pollination algorithm/PSO/Data/testdata.xlsx
+++ b/Flower pollination algorithm/PSO/Data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/PSO/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA45AE-39B5-524A-98EB-BA4F1EE67E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F49E6-8B03-7B48-A325-0E0CDE38B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23080" yWindow="1560" windowWidth="28300" windowHeight="17440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fun1" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,9 +97,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScale="174" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -616,20 +613,24 @@
       <c r="B20"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21"/>
+      <c r="B21"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22"/>
+      <c r="B22"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23"/>
+      <c r="B23"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25"/>
+      <c r="B25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -640,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView zoomScale="188" workbookViewId="0">
-      <selection activeCell="B19" sqref="A16:B19"/>
+    <sheetView topLeftCell="A7" zoomScale="188" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -810,6 +811,21 @@
         <f>STDEV(B1:B15)</f>
         <v>8.1491005335198513E-2</v>
       </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -822,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="206" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" zoomScale="206" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -991,6 +1007,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -998,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B19"/>
+    <sheetView topLeftCell="A7" zoomScale="187" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1175,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="227" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B19"/>
+    <sheetView topLeftCell="A13" zoomScale="227" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1344,6 +1361,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1351,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="250" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B19"/>
+    <sheetView topLeftCell="A11" zoomScale="250" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1520,6 +1538,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1527,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="188" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="188" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1696,5 +1715,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Flower pollination algorithm/PSO/Data/testdata.xlsx
+++ b/Flower pollination algorithm/PSO/Data/testdata.xlsx
@@ -20,6 +20,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun12" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun23" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1373,11 +1382,706 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="0" t="n">
         <v>0.998259397092766</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>34.91604399681091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.02036334708785429</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>11.60059714317322</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.00833370379780235</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>11.63164258003235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.02972956144463814</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>11.67666959762573</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.008333705895817528</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.61973476409912</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.02255332688272454</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11.68216156959534</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.0008049710509876972</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11.65759229660034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.02036333945849777</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.68138146400452</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.008333723147606177</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>11.68708038330078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.02255332688986583</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11.77508687973022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.02255332757811051</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11.6983585357666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.02255332688155195</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11.77867960929871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.008333703141871606</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11.68250703811646</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.02255332688097745</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11.78884720802307</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.02255332688098755</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11.72531127929688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>0.02255332688155897</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>11.76552557945251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-1.031628452664439</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>8.619946718215942</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-1.031627819093399</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>8.651650190353394</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-1.031627121102584</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8.623993396759033</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-1.031628453278182</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8.624356031417847</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-1.03162787771513</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8.657932758331299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-1.031628410039276</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8.661640405654907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-0.9366042668532213</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8.688355207443237</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-1.03162844756247</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8.619852781295776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-1.031628453477747</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8.683952331542969</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-1.031628291414802</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8.617333650588989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-1.027893559306397</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8.662814617156982</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-1.030809203432991</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8.666847229003906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-1.03115200440133</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8.692989587783813</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-1.031628229375404</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.664458990097046</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>-1.031628453270582</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8.707343339920044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.3978873577297897</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>8.996782541275024</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.3978873577299566</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9.320221662521362</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.3978873577465798</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8.962569952011108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.3978873577297541</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8.877721071243286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.3978873577298057</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8.944319009780884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.3978873577297684</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8.89168643951416</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.3978873577297435</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8.948131084442139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.397887358033131</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8.941490411758423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.3978873577297382</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8.979727745056152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.3978873577406432</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8.919145345687866</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.3978873577298838</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8.938555717468262</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.3978873589644074</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8.916036128997803</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.3978873577298589</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8.982609987258911</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.3978873577297382</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.914539575576782</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>0.3978873577297382</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8.932381868362427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>3.000000007146968</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>9.020131826400757</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>3.000000000122735</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9.055420160293579</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3.000000034024527</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>9.191280364990234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3.000004193973196</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.015454769134521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>2.999999999999932</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>9.046649694442749</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>3.000001235106413</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8.997740507125854</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>3.000000086550718</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9.042623519897461</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>3.000005820199339</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8.997852087020874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>3.000000004403916</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9.043046236038208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>3.000030853557956</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9.00881290435791</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3.000000194402859</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>9.076055765151978</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>3.000000002153458</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9.026422500610352</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>3.000000020241867</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9.024348735809326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>3.00000000077979</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>9.082850456237793</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>3.000000002053374</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9.515781879425049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-3.862782147820745</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>14.03654861450195</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-3.862782147820755</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>13.54986357688904</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-3.854900616706769</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>13.61901950836182</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-3.854900616706915</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>13.53051781654358</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-3.862782147820754</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>13.62553358078003</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-3.854900616652789</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>13.5779812335968</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-3.854900616706883</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>13.60666465759277</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-3.86278214781137</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>13.49284267425537</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-3.854900616652237</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>13.52947044372559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-3.854900616613545</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>13.46643424034119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-3.854900616706914</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>13.52661466598511</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-3.854900616693332</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>13.48240733146667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-3.854900616706266</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>13.53200793266296</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-3.854900615477136</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13.48404836654663</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>-3.854900616706906</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>13.55144810676575</v>
       </c>
     </row>
   </sheetData>
@@ -1583,6 +2287,562 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-2.592917362659831</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>14.0661358833313</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-2.638101395455291</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>13.66176581382751</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-2.804005006759265</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>13.82063388824463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-2.701463504745141</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>13.77715563774109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-3.086691266448347</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>13.9127984046936</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-3.134519721840162</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>13.83709716796875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-3.322020617232972</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>13.89583349227905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-2.267136602442043</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>13.85663294792175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-3.322020617225078</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>13.93913078308105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-3.086691266448348</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>13.81165742874146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-3.129922729143444</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>13.86087679862976</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-2.638101395455287</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>13.78833174705505</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-2.840448062656078</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>13.89957714080811</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-2.80400500675881</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13.86463952064514</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>-2.705418639602954</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>13.76149582862854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-2.630471668390062</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>15.29739737510681</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-5.100771699391353</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>14.8839008808136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-5.100772140076541</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>14.85162115097046</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-5.100772140228299</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>14.79289317131042</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-5.100772140331711</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>14.80774831771851</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-5.04983114785261</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>14.77672052383423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-5.090740417857412</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>14.7664361000061</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-5.100772139843537</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>14.83359408378601</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-2.630471668401386</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>14.81020379066467</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-0.8819908767904757</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>14.75936126708984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-2.630471668395755</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>14.8587965965271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-10.15319967279302</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>14.756667137146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-5.100057173004357</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>14.82502102851868</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-5.10076984009287</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>14.87526798248291</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>-2.630471647500102</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>14.84288668632507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-10.40294033968111</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>16.62746000289917</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-3.724300111334774</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>16.72474932670593</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-10.40294056680628</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>16.71731901168823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-5.087671825056214</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>16.74186062812805</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-3.724299918519622</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>16.82462763786316</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-1.837592971406342</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16.70168709754944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-10.40294056163675</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>16.74530982971191</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-0.7562478998721094</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>16.8122763633728</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-5.087671806378324</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>16.75500750541687</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-10.40294056681833</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>16.75605869293213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-5.128822785763959</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16.80730104446411</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-10.40294056681843</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>16.77666878700256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-3.724247189432243</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>16.72651553153992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-10.40294056676701</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>16.77133440971375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>-5.079456990797841</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>16.79353737831116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-5.175646731816773</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>19.68521952629089</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-0.9470667659062912</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>19.84668183326721</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-1.676551745454757</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>19.852463722229</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-10.53628933325483</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>19.85056924819946</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-2.871135504738587</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>19.90240693092346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-2.87114270060219</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>19.75575876235962</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-5.128480784890952</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>19.74030542373657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-3.835426784959624</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>19.78913450241089</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-3.835419544004601</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>19.72700667381287</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-10.5364098166003</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>19.77497053146362</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-10.53640981495021</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>19.82981300354004</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-5.128480730608103</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>19.76468133926392</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-5.128470984733003</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>19.82637548446655</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-2.871142695540908</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>19.84719562530518</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-2.806630718037298</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20.2658588886261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
